--- a/biology/Médecine/Théodoric_Borgognoni/Théodoric_Borgognoni.xlsx
+++ b/biology/Médecine/Théodoric_Borgognoni/Théodoric_Borgognoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9odoric_Borgognoni</t>
+          <t>Théodoric_Borgognoni</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Théodoric Borgognoni, ou Teodorico de' Borgognoni, ou Thierry de Lucques, ou Theodoricus, né à Lucques en Toscane (Italie) en 1205, mort à Bologne en 1298, est un moine dominicain devenu évêque, et un chirurgien réputé pour avoir introduit une pratique antiseptique de base et l'utilisation d'anesthésie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9odoric_Borgognoni</t>
+          <t>Théodoric_Borgognoni</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Théodoric Borgognoni[1] est le fils d’un chirurgien de Lucques (Lucca), Hugo Borgognoni. En 1214, sa famille s'installe à Bologne où son père exerce la médecine de 1214 jusqu'à sa mort en 1250. Il y étudie la médecine à l'université et la chirurgie auprès de son père. Il entre tôt dans l'ordre des Dominicains (c. 1230-1231).
-En 1240, il est au service du pape Innocent IV comme penitentiarus minor (confesseur) de la Pénitencerie apostolique, dépendant de la Curie romaine. Plus tard, le pape le nomme évêque de Bitonto (de 1262 à 1266) puis de Cervia, cité de Romagne (de 1270 à 1298) possédant d'importantes salines que Venise convoitait[2]. Il n'a pas résidé semble-t-il dans ses diocèses. Durant la première période, on a des documents indiquant qu'il avait une maison à Lucca où le pape lui écrivait. Après sa nomination à Cervia, il réside dans la cité universitaire de Bologne où il possédait une grande propriété.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Théodoric Borgognoni est le fils d’un chirurgien de Lucques (Lucca), Hugo Borgognoni. En 1214, sa famille s'installe à Bologne où son père exerce la médecine de 1214 jusqu'à sa mort en 1250. Il y étudie la médecine à l'université et la chirurgie auprès de son père. Il entre tôt dans l'ordre des Dominicains (c. 1230-1231).
+En 1240, il est au service du pape Innocent IV comme penitentiarus minor (confesseur) de la Pénitencerie apostolique, dépendant de la Curie romaine. Plus tard, le pape le nomme évêque de Bitonto (de 1262 à 1266) puis de Cervia, cité de Romagne (de 1270 à 1298) possédant d'importantes salines que Venise convoitait. Il n'a pas résidé semble-t-il dans ses diocèses. Durant la première période, on a des documents indiquant qu'il avait une maison à Lucca où le pape lui écrivait. Après sa nomination à Cervia, il réside dans la cité universitaire de Bologne où il possédait une grande propriété.
 En 1290, le pape Nicolas IV qui avait le monopole de la production du sel de Cervia  lui garantit les revenus des salines. Après avoir fait son testament en octobre 1298, Théodoric meurt le 24 décembre de la même année, à l'âge de 93 ans.
 Théodoric Borgognoni est un bon exemple de membre du haut clergé, ayant développé un intérêt pour la philosophie naturelle et la médecine. Il exerça la chirurgie à l'intérieur et à l'extérieur de son monastère (lequel ?)
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Th%C3%A9odoric_Borgognoni</t>
+          <t>Théodoric_Borgognoni</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors qu'il est membre de la Pénitencerie apostolique, il compose (après 1243) un court traité sur l'art de soigner les blessures. Il mettra ensuite une vingtaine d'années pour en donner une version développée, incorporant les dernières connaissances acquises  dans le domaine ou tirées de ses lectures sur l'alchimie. L'ouvrage, Cyrurgia seu Filia principis, réalisée probablement dans les années 1260, comprend quatre parties[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors qu'il est membre de la Pénitencerie apostolique, il compose (après 1243) un court traité sur l'art de soigner les blessures. Il mettra ensuite une vingtaine d'années pour en donner une version développée, incorporant les dernières connaissances acquises  dans le domaine ou tirées de ses lectures sur l'alchimie. L'ouvrage, Cyrurgia seu Filia principis, réalisée probablement dans les années 1260, comprend quatre parties :
 Chirurgie générale et régime
 Blessures infligées à différentes parties du corps, fractures et dislocations
 Fistules, abcès, hernies et autres pathologies réclamant la chirurgie
@@ -561,8 +577,8 @@
 Theodericus recommandait aussi aux convalescents un régime riche en aliments produisant du sang, comme la viande et le vin, là encore en accord avec son expérience personnelle et celle de son père et en opposition avec la tradition qui préconisait une nourriture frugale aux blessés.
 Theodericus était partisan d'une ancienne méthode d'anesthésie, la spongia somnifera (éponge somnifère), pour alléger la douleur des patients lors des opérations. Une éponge, imprégnée d'opiacés et d'extraits de plantes[n 1], était placée sous le nez du patient. À la fin de l'opération, une éponge imprégnée de vinaigre l'aidait à reprendre ses esprits.
 Theodericus est aussi l'auteur d'un ouvrage de médecine vétérinaire, Mulomedicina (aussi connu comme Practica equorum ou De medela equorum), dédiée au pape Honorius IV.
-Dans sa jeunesse, Theodericus avait étudié l'alchimie et aurait même écrit deux ouvrages d'alchimie, aujourd'hui perdus[3] (De sublimatione arsenici et De aluminibus et salibus). Il a certainement eu connaissance de la technique de distillation de l'eau de rose et d'autres eaux aromatiques, bien connue des alchimistes arabes. Toutefois les traités sur les eaux-de-vie (De aqua vite) qui lui ont été attribués ne contiennent aucune référence à Galien ni aux maîtres arabes qui étaient ses guides dans Cirurgia. Suivant Anne Wilson[4], ni lui ni son contemporain Thaddée de Florence, médecin comme lui à Bologne, ne seraient les auteurs des premiers textes latins décrivant explicitement la technique de distillation des eaux-de-vie.
-Par contre, McVaugh[5] pense que l'introduction du système de refroidissement efficace (utilisant un serpentin passant dans de l'eau fraîche), aurait été mis en œuvre dans la Bologne de Théodoric dans les années 1275-1285 pour produire pour la première fois de l'eau-de-vie. À partir de ce moment de nombreux traités attestent cette innovation, comme c'est le cas du traité De aqua vite de Théodoric Borgognoni.
+Dans sa jeunesse, Theodericus avait étudié l'alchimie et aurait même écrit deux ouvrages d'alchimie, aujourd'hui perdus (De sublimatione arsenici et De aluminibus et salibus). Il a certainement eu connaissance de la technique de distillation de l'eau de rose et d'autres eaux aromatiques, bien connue des alchimistes arabes. Toutefois les traités sur les eaux-de-vie (De aqua vite) qui lui ont été attribués ne contiennent aucune référence à Galien ni aux maîtres arabes qui étaient ses guides dans Cirurgia. Suivant Anne Wilson, ni lui ni son contemporain Thaddée de Florence, médecin comme lui à Bologne, ne seraient les auteurs des premiers textes latins décrivant explicitement la technique de distillation des eaux-de-vie.
+Par contre, McVaugh pense que l'introduction du système de refroidissement efficace (utilisant un serpentin passant dans de l'eau fraîche), aurait été mis en œuvre dans la Bologne de Théodoric dans les années 1275-1285 pour produire pour la première fois de l'eau-de-vie. À partir de ce moment de nombreux traités attestent cette innovation, comme c'est le cas du traité De aqua vite de Théodoric Borgognoni.
 </t>
         </is>
       </c>
